--- a/New Hire Summary (S) 2025-09-29 09_02 GMT+3.xlsx
+++ b/New Hire Summary (S) 2025-09-29 09_02 GMT+3.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH01_RetrieveReport\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C3E0F4-17E4-46B1-B07E-5C53C3FAC5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="315" yWindow="24720" windowWidth="30960" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>New Hire Summary (S)</t>
   </si>
@@ -364,131 +372,35 @@
   <si>
     <t>Remote-Manila</t>
   </si>
+  <si>
+    <t>AMER</t>
+  </si>
+  <si>
+    <t>BDR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <condense val="0"/>
-      <extend val="0"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <condense val="0"/>
-      <extend val="0"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <condense val="0"/>
-      <extend val="0"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <condense val="0"/>
-      <extend val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <condense val="0"/>
-      <extend val="0"/>
-      <color rgb="FF000066"/>
-      <sz val="14.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <condense val="0"/>
-      <extend val="0"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="12.0"/>
-      <name val="Arial Narrow"/>
-    </font>
-    <font>
-      <b/>
-      <condense val="0"/>
-      <extend val="0"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="14.0"/>
-      <name val="Arial Narrow"/>
-    </font>
-    <font>
-      <b/>
-      <condense val="0"/>
-      <extend val="0"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10.0"/>
-      <name val="Arial Narrow"/>
-    </font>
-    <font>
-      <b/>
-      <condense val="0"/>
-      <extend val="0"/>
-      <sz val="8.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <condense val="0"/>
-      <extend val="0"/>
-      <sz val="8.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <condense val="0"/>
-      <extend val="0"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="8.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <condense val="0"/>
-      <extend val="0"/>
-      <color rgb="FF808080"/>
-      <sz val="8.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <condense val="0"/>
-      <extend val="0"/>
-      <color rgb="FF808080"/>
-      <sz val="10.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <condense val="0"/>
-      <extend val="0"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <condense val="0"/>
-      <extend val="0"/>
-      <color rgb="FF000066"/>
-      <sz val="22.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <condense val="0"/>
-      <extend val="0"/>
-      <sz val="10.0"/>
-      <name val="Verdana"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,218 +409,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAAAAAA"/>
-        <bgColor rgb="FFAAAAAA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3366FF"/>
-        <bgColor rgb="FF3366FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF969696"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1B447F"/>
-        <bgColor rgb="FF1B447F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF339966"/>
-        <bgColor rgb="FF339966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF75923C"/>
-        <bgColor rgb="FF75923C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF333399"/>
-        <bgColor rgb="FF333399"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000066"/>
-        <bgColor rgb="FF000066"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
-    </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="1">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellXfs count="67">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" applyFill="1" borderId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0">
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyFill="1" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyFill="1" borderId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyFill="1" borderId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" applyFill="1" borderId="0">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" applyFill="1" borderId="0">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" applyFill="1" borderId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" applyFill="1" borderId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" applyFill="1" borderId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" applyFill="1" borderId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" applyFill="1" borderId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" applyFill="1" borderId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" applyFill="1" borderId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" applyFill="1" borderId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" applyFill="1" borderId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" applyFill="1" borderId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" applyFill="1" borderId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" applyFill="1" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyFill="1" borderId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyFill="1" borderId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" applyFill="1" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -775,469 +518,784 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.0" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.4375" customWidth="1"/>
-    <col min="2" max="2" width="23.4375" customWidth="1"/>
-    <col min="3" max="3" width="23.4375" customWidth="1"/>
-    <col min="4" max="4" width="23.4375" customWidth="1"/>
-    <col min="5" max="5" width="23.4375" customWidth="1"/>
-    <col min="6" max="6" width="23.4375" customWidth="1"/>
-    <col min="7" max="7" width="23.4375" customWidth="1"/>
-    <col min="8" max="8" width="23.4375" customWidth="1"/>
-    <col min="9" max="9" width="23.4375" customWidth="1"/>
-    <col min="10" max="10" width="23.4375" customWidth="1"/>
+    <col min="1" max="10" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="n">
+      <c r="B2" s="1">
         <v>45921</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="n">
+      <c r="B3" s="1">
         <v>45934</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="51" t="s">
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="22" t="n">
+      <c r="C7" s="1">
         <v>45929</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="22" t="n">
+      <c r="C8" s="1">
         <v>45929</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="22" t="n">
+      <c r="C9" s="1">
         <v>45929</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="22" t="n">
+      <c r="C10" s="1">
         <v>45929</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="22" t="n">
+      <c r="C11" s="1">
         <v>45929</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="22" t="n">
+      <c r="C12" s="1">
         <v>45923</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="22" t="n">
+      <c r="C13" s="1">
         <v>45922</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="22" t="n">
+      <c r="C14" s="1">
         <v>45922</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="22" t="n">
+      <c r="C15" s="1">
         <v>45922</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="22" t="n">
+      <c r="C16" s="1">
         <v>45922</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="22" t="n">
+      <c r="C17" s="1">
         <v>45922</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="3" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>